--- a/data/trans_bre/P34_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P34_R-Edad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.5804040775158059</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9.95244521898141</v>
+        <v>9.952445218981421</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.002428882969865735</v>
@@ -649,7 +649,7 @@
         <v>0.01497390061266713</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.2859542299015919</v>
+        <v>0.2859542299015923</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.952684969295395</v>
+        <v>-6.458488549263045</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.038943301556434</v>
+        <v>-4.820733488260171</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.607143867624127</v>
+        <v>-6.325475059446211</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.01436015506341487</v>
+        <v>-0.3663108626836137</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1198880745629276</v>
+        <v>-0.1153848175492732</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1145630569212267</v>
+        <v>-0.108612225963103</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1517532739093967</v>
+        <v>-0.1518155723437054</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.002738265214861554</v>
+        <v>-0.009832574718840074</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.727343769206914</v>
+        <v>5.971030803366164</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.494818479856756</v>
+        <v>8.351359301963154</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.139808513380673</v>
+        <v>7.109554559626795</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19.40165654896312</v>
+        <v>20.67441819798671</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1142519565385403</v>
+        <v>0.1211510298724649</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2245979732591658</v>
+        <v>0.2173025379308059</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2025217120267409</v>
+        <v>0.2028173210922345</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.6704640054583976</v>
+        <v>0.7152719636435478</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-3.588489896733207</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.02569349703777091</v>
+        <v>0.02569349703777646</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.1480877959133546</v>
@@ -749,7 +749,7 @@
         <v>-0.133199830434978</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.0008474687138684241</v>
+        <v>0.0008474687138686073</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-9.861700529681148</v>
+        <v>-9.991752290090204</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-9.450878260276339</v>
+        <v>-8.436677027902283</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-8.673853258145945</v>
+        <v>-8.838522946233352</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-6.744392408223056</v>
+        <v>-6.53091926487973</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.275751195169486</v>
+        <v>-0.2737134778171877</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3171366073013249</v>
+        <v>-0.2927784048318401</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2962291675524259</v>
+        <v>-0.2908569323307724</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1964060692911328</v>
+        <v>-0.192018320416586</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1058689449700378</v>
+        <v>0.5051777330332199</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7236502257094793</v>
+        <v>1.147821353648661</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.264630575251232</v>
+        <v>1.701722811725997</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.587929951846504</v>
+        <v>7.100439742423132</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.002903517321476459</v>
+        <v>0.02093549966032517</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03127559801918341</v>
+        <v>0.04716228416558987</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04964659358283278</v>
+        <v>0.07361976950959151</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2580378128129054</v>
+        <v>0.2733657813128433</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-11.76485143046533</v>
+        <v>-11.67448079356894</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-12.86800811057724</v>
+        <v>-12.88378392352291</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-13.01579690407991</v>
+        <v>-12.39248855856629</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-11.13477440370853</v>
+        <v>-11.42399998073121</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4102621315586886</v>
+        <v>-0.4166318753902616</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.4918577437437878</v>
+        <v>-0.4895557614154351</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4251697465550069</v>
+        <v>-0.4260582469162631</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.3378816609428367</v>
+        <v>-0.3507090735607317</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-2.399275848237388</v>
+        <v>-1.736545880873555</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-4.385775676096197</v>
+        <v>-4.390077764261708</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-3.035578720481904</v>
+        <v>-2.863121571136806</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.589860509703601</v>
+        <v>-1.893708153371547</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.1016597889391282</v>
+        <v>-0.08913347534608815</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.1922927508010119</v>
+        <v>-0.2040100202111843</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.1217165402207071</v>
+        <v>-0.1171237607360368</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.05097667961359425</v>
+        <v>-0.07274527897672602</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-22.39070331090669</v>
+        <v>-23.03099563717892</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-13.10771610680708</v>
+        <v>-13.25316808481051</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-16.15293114528674</v>
+        <v>-16.2847489394076</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-11.39405513446519</v>
+        <v>-11.17408448676083</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.630166710165512</v>
+        <v>-0.6430901100414204</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4515452396256476</v>
+        <v>-0.4584561506240052</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4600575971549864</v>
+        <v>-0.4701802270213123</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.317291229210708</v>
+        <v>-0.3098486318784452</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-11.86148009526521</v>
+        <v>-12.21635174446482</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-2.77610996419366</v>
+        <v>-2.784031817739368</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-5.933601390558087</v>
+        <v>-5.933939988293677</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-2.146429725185997</v>
+        <v>-2.146880927227015</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.3925914059537894</v>
+        <v>-0.4049223684576377</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.1025772638361324</v>
+        <v>-0.1074579622950006</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.1984222429867558</v>
+        <v>-0.2098648683720303</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.07046426158725382</v>
+        <v>-0.07093425683683013</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-18.24766566567093</v>
+        <v>-18.2034199798583</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-8.77375922192984</v>
+        <v>-8.675965247943754</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-16.6058032546724</v>
+        <v>-16.57142269077774</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-13.10260422412361</v>
+        <v>-12.56219810406226</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.4890308390188574</v>
+        <v>-0.4883956275006017</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2956858004064007</v>
+        <v>-0.3012724944796075</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.4025292991420047</v>
+        <v>-0.3963986215767725</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.3399600156592901</v>
+        <v>-0.3314987316163583</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-5.407616347018835</v>
+        <v>-5.584817516282757</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.020441486512103</v>
+        <v>3.392127456701217</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-3.383755723213702</v>
+        <v>-4.34524094042359</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-3.680982736998463</v>
+        <v>-4.018294792678471</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.1794445981067554</v>
+        <v>-0.166210670862987</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.135056132432628</v>
+        <v>0.1409730517776318</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.09854543527579242</v>
+        <v>-0.1192393212477285</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.1115363714804277</v>
+        <v>-0.123796944636183</v>
       </c>
     </row>
     <row r="19">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-19.91928819783625</v>
+        <v>-20.12533047152072</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-11.75626142397282</v>
+        <v>-11.82185144293638</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-17.18519690695699</v>
+        <v>-17.15039615026121</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-5.271877360792419</v>
+        <v>-5.112917066286707</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3603886319702819</v>
+        <v>-0.3657989089527101</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2518053046590803</v>
+        <v>-0.2463212130803589</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.309962670797285</v>
+        <v>-0.3047700805388232</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1252151735692436</v>
+        <v>-0.1242576873270235</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-4.247564989227433</v>
+        <v>-4.429005310233019</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>4.822980848011642</v>
+        <v>4.785512048492714</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-1.968810193550181</v>
+        <v>-2.227939580194722</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4.93084369478451</v>
+        <v>5.253328647808694</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.08709167919717747</v>
+        <v>-0.09851816014546695</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1246493065263308</v>
+        <v>0.1243244282664153</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.04275854079059254</v>
+        <v>-0.04724214677147703</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1384306693847599</v>
+        <v>0.1477589822124704</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>-2.841595491185223</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8.110883285166492</v>
+        <v>8.110883285166482</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.1112311845732302</v>
@@ -1249,7 +1249,7 @@
         <v>-0.04164812327244319</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.1452656834583766</v>
+        <v>0.1452656834583765</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-15.96076874026156</v>
+        <v>-15.72993236031081</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7620307751309295</v>
+        <v>0.3264107055546866</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-10.8576130961669</v>
+        <v>-9.75854639710006</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.593752016462949</v>
+        <v>2.669453287034717</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.2250957980883803</v>
+        <v>-0.2226325284938671</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01224381500330992</v>
+        <v>0.004860699187763276</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.1572208998664914</v>
+        <v>-0.1380054078147585</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.04103750079728518</v>
+        <v>0.04619753848924317</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9085036655929423</v>
+        <v>0.8408075226260322</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>16.91342024135168</v>
+        <v>16.53632719966199</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.554099226239408</v>
+        <v>5.160422496091026</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14.10906527768515</v>
+        <v>14.24868725001489</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.01313100559652321</v>
+        <v>0.01191422730959258</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3227387124070765</v>
+        <v>0.3122687357526034</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06825934836729076</v>
+        <v>0.0803353558496646</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.2679116645351258</v>
+        <v>0.2822738761051252</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>-5.252779111834871</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>-0.9981750077230511</v>
+        <v>-0.9981750077230567</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.1937036423572263</v>
@@ -1349,7 +1349,7 @@
         <v>-0.1434501215406956</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>-0.02813102473409966</v>
+        <v>-0.0281310247340998</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-9.718560218348657</v>
+        <v>-9.824301584769149</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-4.420997402480737</v>
+        <v>-4.491507669443019</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-7.520469167189464</v>
+        <v>-7.487408189884451</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-3.512445703480239</v>
+        <v>-3.343442605888649</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2434461918315877</v>
+        <v>-0.2446022233220607</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1345650374261297</v>
+        <v>-0.1354419301308257</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1988401783494458</v>
+        <v>-0.1974519480868202</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.09407361146017038</v>
+        <v>-0.09033596051459025</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-5.059379091639865</v>
+        <v>-5.544858316308396</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2466785527953516</v>
+        <v>-0.1044307196588568</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>-2.900049933162885</v>
+        <v>-2.844881685870535</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1.181755077388702</v>
+        <v>1.348862530986814</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.1367111905750302</v>
+        <v>-0.1452594374011126</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.008230082418896912</v>
+        <v>-0.002897422097648894</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.08154151848700356</v>
+        <v>-0.07909652817316737</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.03389436083492565</v>
+        <v>0.03926762741753526</v>
       </c>
     </row>
     <row r="28">
